--- a/covidnew_hk.xlsx
+++ b/covidnew_hk.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jacky\Desktop\Data Science\FTDS_Aug2020_GroupProject1_Covid19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047BB21F-6667-4030-B91F-43AAC9EF06D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +98,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,19 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="L192" sqref="L192"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -458,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43838</v>
       </c>
@@ -469,7 +414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>43839</v>
       </c>
@@ -480,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>43840</v>
       </c>
@@ -491,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>43841</v>
       </c>
@@ -502,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43842</v>
       </c>
@@ -513,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>43843</v>
       </c>
@@ -524,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43844</v>
       </c>
@@ -535,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43845</v>
       </c>
@@ -546,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43846</v>
       </c>
@@ -557,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43847</v>
       </c>
@@ -568,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43848</v>
       </c>
@@ -579,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43849</v>
       </c>
@@ -590,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>43850</v>
       </c>
@@ -601,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>43851</v>
       </c>
@@ -612,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>43852</v>
       </c>
@@ -623,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>43853</v>
       </c>
@@ -634,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>43854</v>
       </c>
@@ -645,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>43855</v>
       </c>
@@ -656,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>43856</v>
       </c>
@@ -667,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43857</v>
       </c>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>43858</v>
       </c>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>43859</v>
       </c>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>43860</v>
       </c>
@@ -711,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>43861</v>
       </c>
@@ -722,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>43862</v>
       </c>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>43863</v>
       </c>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>43864</v>
       </c>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>43865</v>
       </c>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>43866</v>
       </c>
@@ -777,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43867</v>
       </c>
@@ -788,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>43868</v>
       </c>
@@ -799,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>43869</v>
       </c>
@@ -810,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>43870</v>
       </c>
@@ -821,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>43871</v>
       </c>
@@ -832,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43872</v>
       </c>
@@ -843,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>43873</v>
       </c>
@@ -854,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>43874</v>
       </c>
@@ -865,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>43875</v>
       </c>
@@ -876,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>43876</v>
       </c>
@@ -887,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43877</v>
       </c>
@@ -898,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>43878</v>
       </c>
@@ -909,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>43879</v>
       </c>
@@ -920,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43880</v>
       </c>
@@ -931,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>43881</v>
       </c>
@@ -942,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>43882</v>
       </c>
@@ -953,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>43883</v>
       </c>
@@ -964,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>43884</v>
       </c>
@@ -975,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>43885</v>
       </c>
@@ -986,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>43886</v>
       </c>
@@ -997,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>43887</v>
       </c>
@@ -1008,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>43888</v>
       </c>
@@ -1019,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>43889</v>
       </c>
@@ -1030,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>43890</v>
       </c>
@@ -1041,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>43891</v>
       </c>
@@ -1052,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>43892</v>
       </c>
@@ -1063,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>43893</v>
       </c>
@@ -1074,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>43894</v>
       </c>
@@ -1085,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>43895</v>
       </c>
@@ -1096,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>43896</v>
       </c>
@@ -1107,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>43897</v>
       </c>
@@ -1118,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>43898</v>
       </c>
@@ -1129,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>43899</v>
       </c>
@@ -1140,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>43900</v>
       </c>
@@ -1151,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>43901</v>
       </c>
@@ -1162,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>43902</v>
       </c>
@@ -1173,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>43903</v>
       </c>
@@ -1184,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>43904</v>
       </c>
@@ -1195,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>43905</v>
       </c>
@@ -1206,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>43906</v>
       </c>
@@ -1217,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>43907</v>
       </c>
@@ -1228,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>43908</v>
       </c>
@@ -1239,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>43909</v>
       </c>
@@ -1250,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>43910</v>
       </c>
@@ -1261,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>43911</v>
       </c>
@@ -1272,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>43912</v>
       </c>
@@ -1283,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>43913</v>
       </c>
@@ -1294,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>43914</v>
       </c>
@@ -1305,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>43915</v>
       </c>
@@ -1316,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>43916</v>
       </c>
@@ -1327,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>43917</v>
       </c>
@@ -1338,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>43918</v>
       </c>
@@ -1349,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>43919</v>
       </c>
@@ -1360,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>43920</v>
       </c>
@@ -1371,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>43921</v>
       </c>
@@ -1382,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>43922</v>
       </c>
@@ -1393,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>43923</v>
       </c>
@@ -1404,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>43924</v>
       </c>
@@ -1415,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>43925</v>
       </c>
@@ -1426,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>43926</v>
       </c>
@@ -1437,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>43927</v>
       </c>
@@ -1448,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>43928</v>
       </c>
@@ -1459,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>43929</v>
       </c>
@@ -1470,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>43930</v>
       </c>
@@ -1481,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>43931</v>
       </c>
@@ -1492,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>43932</v>
       </c>
@@ -1503,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>43933</v>
       </c>
@@ -1514,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>43934</v>
       </c>
@@ -1525,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>43935</v>
       </c>
@@ -1536,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>43936</v>
       </c>
@@ -1547,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>43937</v>
       </c>
@@ -1558,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>43938</v>
       </c>
@@ -1569,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>43939</v>
       </c>
@@ -1580,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>43940</v>
       </c>
@@ -1591,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>43941</v>
       </c>
@@ -1602,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>43942</v>
       </c>
@@ -1613,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>43943</v>
       </c>
@@ -1624,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>43944</v>
       </c>
@@ -1635,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>43945</v>
       </c>
@@ -1646,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>43946</v>
       </c>
@@ -1657,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>43947</v>
       </c>
@@ -1668,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>43948</v>
       </c>
@@ -1679,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>43949</v>
       </c>
@@ -1690,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>43950</v>
       </c>
@@ -1701,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>43951</v>
       </c>
@@ -1712,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>43952</v>
       </c>
@@ -1723,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>43953</v>
       </c>
@@ -1734,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>43954</v>
       </c>
@@ -1745,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>43955</v>
       </c>
@@ -1756,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>43956</v>
       </c>
@@ -1767,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>43957</v>
       </c>
@@ -1778,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>43958</v>
       </c>
@@ -1789,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>43959</v>
       </c>
@@ -1800,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>43960</v>
       </c>
@@ -1811,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>43961</v>
       </c>
@@ -1822,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>43962</v>
       </c>
@@ -1833,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>43963</v>
       </c>
@@ -1844,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>43964</v>
       </c>
@@ -1855,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>43965</v>
       </c>
@@ -1866,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>43966</v>
       </c>
@@ -1877,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>43967</v>
       </c>
@@ -1888,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>43968</v>
       </c>
@@ -1899,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>43969</v>
       </c>
@@ -1910,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>43970</v>
       </c>
@@ -1921,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>43971</v>
       </c>
@@ -1932,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>43972</v>
       </c>
@@ -1943,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>43973</v>
       </c>
@@ -1954,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>43974</v>
       </c>
@@ -1965,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>43975</v>
       </c>
@@ -1976,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>43976</v>
       </c>
@@ -1987,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>43977</v>
       </c>
@@ -1998,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>43978</v>
       </c>
@@ -2009,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>43979</v>
       </c>
@@ -2020,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>43980</v>
       </c>
@@ -2031,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>43981</v>
       </c>
@@ -2042,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>43982</v>
       </c>
@@ -2053,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>43983</v>
       </c>
@@ -2064,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>43984</v>
       </c>
@@ -2075,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>43985</v>
       </c>
@@ -2086,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>43986</v>
       </c>
@@ -2097,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>43987</v>
       </c>
@@ -2108,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>43988</v>
       </c>
@@ -2119,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>43989</v>
       </c>
@@ -2130,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>43990</v>
       </c>
@@ -2141,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>43991</v>
       </c>
@@ -2152,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>43992</v>
       </c>
@@ -2163,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>43993</v>
       </c>
@@ -2174,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>43994</v>
       </c>
@@ -2185,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>43995</v>
       </c>
@@ -2196,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>43996</v>
       </c>
@@ -2207,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>43997</v>
       </c>
@@ -2218,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>43998</v>
       </c>
@@ -2229,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>43999</v>
       </c>
@@ -2240,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>44000</v>
       </c>
@@ -2251,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>44001</v>
       </c>
@@ -2262,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>44002</v>
       </c>
@@ -2273,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>44003</v>
       </c>
@@ -2284,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>44004</v>
       </c>
@@ -2295,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>44005</v>
       </c>
@@ -2306,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>44006</v>
       </c>
@@ -2317,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>44007</v>
       </c>
@@ -2328,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>44008</v>
       </c>
@@ -2339,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>44009</v>
       </c>
@@ -2350,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>44010</v>
       </c>
@@ -2361,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>44011</v>
       </c>
@@ -2372,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>44012</v>
       </c>
@@ -2383,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>44013</v>
       </c>
@@ -2394,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>44014</v>
       </c>
@@ -2405,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>44015</v>
       </c>
@@ -2416,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>44016</v>
       </c>
@@ -2427,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>44017</v>
       </c>
@@ -2438,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>44018</v>
       </c>
@@ -2449,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" s="2">
         <v>44019</v>
       </c>
@@ -2460,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" s="2">
         <v>44020</v>
       </c>
@@ -2471,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>44021</v>
       </c>
@@ -2482,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>44022</v>
       </c>
@@ -2493,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>44023</v>
       </c>
@@ -2504,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>44024</v>
       </c>
@@ -2515,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>44025</v>
       </c>
@@ -2526,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>44026</v>
       </c>
@@ -2537,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>44027</v>
       </c>
@@ -2548,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>44028</v>
       </c>
@@ -2559,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>44029</v>
       </c>
@@ -2570,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>44030</v>
       </c>
@@ -2581,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>44031</v>
       </c>
@@ -2592,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>44032</v>
       </c>
@@ -2603,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>44033</v>
       </c>
@@ -2614,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" s="2">
         <v>44034</v>
       </c>
@@ -2625,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" s="2">
         <v>44035</v>
       </c>
@@ -2636,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" s="2">
         <v>44036</v>
       </c>
@@ -2647,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" s="2">
         <v>44037</v>
       </c>
@@ -2658,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3">
       <c r="A202" s="2">
         <v>44038</v>
       </c>
@@ -2669,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3">
       <c r="A203" s="2">
         <v>44039</v>
       </c>
@@ -2680,7 +2625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3">
       <c r="A204" s="2">
         <v>44040</v>
       </c>
@@ -2691,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3">
       <c r="A205" s="2">
         <v>44041</v>
       </c>
@@ -2702,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3">
       <c r="A206" s="2">
         <v>44042</v>
       </c>
@@ -2713,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3">
       <c r="A207" s="2">
         <v>44043</v>
       </c>
@@ -2724,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3">
       <c r="A208" s="2">
         <v>44044</v>
       </c>
@@ -2735,7 +2680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3">
       <c r="A209" s="2">
         <v>44045</v>
       </c>
@@ -2746,7 +2691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3">
       <c r="A210" s="2">
         <v>44046</v>
       </c>
@@ -2757,7 +2702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3">
       <c r="A211" s="2">
         <v>44047</v>
       </c>
@@ -2768,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3">
       <c r="A212" s="2">
         <v>44048</v>
       </c>
@@ -2779,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3">
       <c r="A213" s="2">
         <v>44049</v>
       </c>
@@ -2790,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3">
       <c r="A214" s="2">
         <v>44050</v>
       </c>
@@ -2801,7 +2746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3">
       <c r="A215" s="2">
         <v>44051</v>
       </c>
@@ -2812,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3">
       <c r="A216" s="2">
         <v>44052</v>
       </c>
@@ -2823,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3">
       <c r="A217" s="2">
         <v>44053</v>
       </c>
@@ -2834,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3">
       <c r="A218" s="2">
         <v>44054</v>
       </c>
@@ -2845,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3">
       <c r="A219" s="2">
         <v>44055</v>
       </c>
@@ -2856,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3">
       <c r="A220" s="2">
         <v>44056</v>
       </c>
@@ -2867,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3">
       <c r="A221" s="2">
         <v>44057</v>
       </c>
@@ -2878,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3">
       <c r="A222" s="2">
         <v>44058</v>
       </c>
@@ -2889,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3">
       <c r="A223" s="2">
         <v>44059</v>
       </c>
@@ -2900,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3">
       <c r="A224" s="2">
         <v>44060</v>
       </c>
@@ -2911,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>44061</v>
       </c>
@@ -2922,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3">
       <c r="A226" s="2">
         <v>44062</v>
       </c>
@@ -2933,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3">
       <c r="A227" s="2">
         <v>44063</v>
       </c>
@@ -2944,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3">
       <c r="A228" s="2">
         <v>44064</v>
       </c>
@@ -2955,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3">
       <c r="A229" s="2">
         <v>44065</v>
       </c>
@@ -2966,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3">
       <c r="A230" s="2">
         <v>44066</v>
       </c>
@@ -2977,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3">
       <c r="A231" s="2">
         <v>44067</v>
       </c>
@@ -2988,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3">
       <c r="A232" s="2">
         <v>44068</v>
       </c>
@@ -2999,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3">
       <c r="A233" s="2">
         <v>44069</v>
       </c>
@@ -3010,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3">
       <c r="A234" s="2">
         <v>44070</v>
       </c>
@@ -3021,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3">
       <c r="A235" s="2">
         <v>44071</v>
       </c>
@@ -3032,7 +2977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3">
       <c r="A236" s="2">
         <v>44072</v>
       </c>
@@ -3043,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3">
       <c r="A237" s="2">
         <v>44073</v>
       </c>
@@ -3054,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3">
       <c r="A238" s="2">
         <v>44074</v>
       </c>
@@ -3065,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3">
       <c r="A239" s="2">
         <v>44075</v>
       </c>
@@ -3076,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3">
       <c r="A240" s="2">
         <v>44076</v>
       </c>
@@ -3087,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3">
       <c r="A241" s="2">
         <v>44077</v>
       </c>
@@ -3098,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3">
       <c r="A242" s="2">
         <v>44078</v>
       </c>
@@ -3109,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3">
       <c r="A243" s="2">
         <v>44079</v>
       </c>
@@ -3120,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3">
       <c r="A244" s="2">
         <v>44080</v>
       </c>
@@ -3131,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3">
       <c r="A245" s="2">
         <v>44081</v>
       </c>
@@ -3142,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3">
       <c r="A246" s="2">
         <v>44082</v>
       </c>
@@ -3153,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3">
       <c r="A247" s="2">
         <v>44083</v>
       </c>
@@ -3164,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3">
       <c r="A248" s="2">
         <v>44084</v>
       </c>
@@ -3175,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3">
       <c r="A249" s="2">
         <v>44085</v>
       </c>
@@ -3186,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3">
       <c r="A250" s="2">
         <v>44086</v>
       </c>
@@ -3197,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3">
       <c r="A251" s="2">
         <v>44087</v>
       </c>

--- a/covidnew_hk.xlsx
+++ b/covidnew_hk.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3153,6 +3153,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B252">
+        <v>14</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B254">
+        <v>9</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
